--- a/biology/Botanique/Minuartia_verna/Minuartia_verna.xlsx
+++ b/biology/Botanique/Minuartia_verna/Minuartia_verna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sagine, ou sabline, (Sabulina verna (L.) Rchb[1]. ou Minuartia verna (L.) Hiern)[2] est une petite plante tapissante de la famille des Caryophyllacées, originaire d'Europe, de l'est de l'Himalaya et de l'Asie tempérée. Avec son allure qui rappelle celle de la mousse, on l'utilise en horticulture ornementale pour remplir les interstices entre les pierres d'un pavé[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sagine, ou sabline, (Sabulina verna (L.) Rchb. ou Minuartia verna (L.) Hiern) est une petite plante tapissante de la famille des Caryophyllacées, originaire d'Europe, de l'est de l'Himalaya et de l'Asie tempérée. Avec son allure qui rappelle celle de la mousse, on l'utilise en horticulture ornementale pour remplir les interstices entre les pierres d'un pavé.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sabline est une plante vivace se développant en touffe dense. Le feuillage est linéaire, un peu charnu et généralement pubescent. Les tiges florales, d'au plus 15 cm de hauteur, portent des cymes lâches de fleurs blanches à cinq pétales[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sabline est une plante vivace se développant en touffe dense. Le feuillage est linéaire, un peu charnu et généralement pubescent. Les tiges florales, d'au plus 15 cm de hauteur, portent des cymes lâches de fleurs blanches à cinq pétales.
 </t>
         </is>
       </c>
